--- a/results.xlsx
+++ b/results.xlsx
@@ -952,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D3">
         <v>11</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="J3">
         <f>SUM(C1:C40)</f>
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
